--- a/data/trans_dic/P25A$molestias-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25A$molestias-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09310341792987166</v>
+        <v>0.08053905496481788</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04774943496776699</v>
+        <v>0.04686435105674815</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1550602131313644</v>
+        <v>0.1422092293456072</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1046956300661052</v>
+        <v>0.08331186313287529</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1276458652157239</v>
+        <v>0.1272335472220233</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06959347978230571</v>
+        <v>0.06639426465959948</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07798836409698384</v>
+        <v>0.08010127602348568</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1662695693785221</v>
+        <v>0.1606620318032397</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3140106502361705</v>
+        <v>0.3032924166218668</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1861256173303733</v>
+        <v>0.1843634027441321</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3523604495979794</v>
+        <v>0.3327175361064267</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2199772533928123</v>
+        <v>0.2666062902839235</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4077129316053685</v>
+        <v>0.4131904037212547</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3562001776423241</v>
+        <v>0.3474390591326949</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2387656431584693</v>
+        <v>0.2319170810871504</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2195204382654106</v>
+        <v>0.2288728857674628</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3124428502247298</v>
+        <v>0.3104726072300042</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06854755423667536</v>
+        <v>0.06976363730650537</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03494186570482988</v>
+        <v>0.04089066855950338</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.162716446881987</v>
+        <v>0.160247583976478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03685251342042251</v>
+        <v>0.03665496237128108</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03867758632812328</v>
+        <v>0.0412646327101916</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06533070655622616</v>
+        <v>0.07064344863449423</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02845874136461776</v>
+        <v>0.02897542217122611</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1442693924607862</v>
+        <v>0.1555504305807894</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1876550322334794</v>
+        <v>0.1905852431434265</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1635875102104258</v>
+        <v>0.1564476702620336</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.363982796453085</v>
+        <v>0.3584304860377633</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2677681224979276</v>
+        <v>0.2716058017546523</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09997626407151924</v>
+        <v>0.1029476636975755</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.344139650007365</v>
+        <v>0.352628381991379</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1747775629162213</v>
+        <v>0.1769598479523579</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.115636581033368</v>
+        <v>0.1206817201938433</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3134779535139057</v>
+        <v>0.3205617688706745</v>
       </c>
     </row>
     <row r="10">
@@ -893,29 +893,29 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0743229147463972</v>
+        <v>0.07894770546995501</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04968855723456671</v>
+        <v>0.05012289391107192</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01190646208180449</v>
+        <v>0.01193145233640743</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03184806637961596</v>
+        <v>0.03173990559579996</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06249394423793828</v>
+        <v>0.07144787815184629</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04201210235549059</v>
+        <v>0.04466681515431437</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02166660151893797</v>
+        <v>0.02418065770550954</v>
       </c>
     </row>
     <row r="12">
@@ -926,29 +926,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2624643628164133</v>
+        <v>0.269870484651886</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.191300136743655</v>
+        <v>0.1870769090462041</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.11532384004031</v>
+        <v>0.1145781397560635</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.1606869994732918</v>
+        <v>0.1353588499309696</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2707551049039256</v>
+        <v>0.2991425571309995</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2219663612422505</v>
+        <v>0.2368382598671945</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1447360382433528</v>
+        <v>0.1441506057327753</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1228588519488151</v>
+        <v>0.1225578695431729</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1509659117819724</v>
+        <v>0.1485042628074192</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04116760354253255</v>
+        <v>0.03956629304146667</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04018398691004232</v>
+        <v>0.04363455997221079</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.112886077610747</v>
+        <v>0.1156935360555618</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0219583278876287</v>
+        <v>0.02156245178460267</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04006260777192577</v>
+        <v>0.04040156415800808</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1551743585584977</v>
+        <v>0.166336345010102</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04581416687483902</v>
+        <v>0.04119544056849728</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05406939299590691</v>
+        <v>0.0570780893643261</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3584769027065945</v>
+        <v>0.345984673573426</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1525875596172499</v>
+        <v>0.1478042365951487</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1776297250870611</v>
+        <v>0.1769786508452683</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3853567684727616</v>
+        <v>0.394920734054563</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1993985366348462</v>
+        <v>0.1992274009500148</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2172366854947621</v>
+        <v>0.2141035493294985</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3108925039816991</v>
+        <v>0.3159705065362587</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1328861246464801</v>
+        <v>0.1364512738870123</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1581185093776245</v>
+        <v>0.1643014133905281</v>
       </c>
     </row>
     <row r="16">
@@ -1110,28 +1110,28 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06566138224325949</v>
+        <v>0.06579071597530736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05820645024048166</v>
+        <v>0.05544994532887969</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06649585229501184</v>
+        <v>0.06629148106635839</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1732592684140454</v>
+        <v>0.1663821838448836</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01187483071182373</v>
+        <v>0.01224724335324553</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09589186564211243</v>
+        <v>0.09170508273108564</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1363280797582748</v>
+        <v>0.1335154456111697</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1487401004432162</v>
+        <v>0.1465481709808136</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2961873314155912</v>
+        <v>0.2767204141996467</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.351173815793281</v>
+        <v>0.3356995812740712</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1491561302784346</v>
+        <v>0.1506422856268067</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3714119015728826</v>
+        <v>0.376632744512312</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6439956467712544</v>
+        <v>0.6245998613110567</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1049441176959393</v>
+        <v>0.1128046502555873</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.268721508850976</v>
+        <v>0.2695670281583983</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3755120478301506</v>
+        <v>0.3879688046452445</v>
       </c>
     </row>
     <row r="19">
@@ -1216,27 +1216,27 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2061198108963796</v>
+        <v>0.2082268491291878</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03472335154788183</v>
+        <v>0.0361280976604609</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1009232225906686</v>
+        <v>0.1006675923697786</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05331036013646388</v>
+        <v>0.0527596447045903</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
-        <v>0.1934059992816337</v>
+        <v>0.1727092773906033</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02831577831419812</v>
+        <v>0.02746762264914919</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07567794594920156</v>
+        <v>0.08114283959992083</v>
       </c>
     </row>
     <row r="21">
@@ -1247,27 +1247,27 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4445957689270092</v>
+        <v>0.4603439109764563</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1585151745046117</v>
+        <v>0.1632852262921519</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3306320512720048</v>
+        <v>0.3516658890158714</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4112955043789596</v>
+        <v>0.4068761415575202</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.4030375813026312</v>
+        <v>0.376428023165359</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1338360870807669</v>
+        <v>0.1203311153366254</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.258761222577111</v>
+        <v>0.2589605157661121</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1745222228134384</v>
+        <v>0.1759474996786631</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06262106433606379</v>
+        <v>0.06516336035455071</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1198988114618857</v>
+        <v>0.1183201211472091</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1121259427770254</v>
+        <v>0.1150237158422776</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01926064911400692</v>
+        <v>0.0133176841947099</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05010573064018831</v>
+        <v>0.05930562185769865</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.185544287521919</v>
+        <v>0.1741096111152015</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05791158197882901</v>
+        <v>0.05911738155063342</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1078594764457473</v>
+        <v>0.1125656187260449</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3578385001098408</v>
+        <v>0.3597621617062508</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1722745767810684</v>
+        <v>0.1709817431949869</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2694820468949829</v>
+        <v>0.2770921172187079</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3858619968233757</v>
+        <v>0.3929192772329616</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1331228019111289</v>
+        <v>0.129223425965091</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.189007671715865</v>
+        <v>0.1937992474052573</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3346591274951626</v>
+        <v>0.3275836561202124</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1393384797013696</v>
+        <v>0.1357910248897617</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2140541072178149</v>
+        <v>0.2140876199965865</v>
       </c>
     </row>
     <row r="25">
@@ -1426,31 +1426,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1320980251799731</v>
+        <v>0.1381227283734725</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08088206295136144</v>
+        <v>0.08340941737328887</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.048417783639646</v>
+        <v>0.04916904993657047</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0873101813101244</v>
+        <v>0.09241963876708199</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.06019618692326563</v>
+        <v>0.06000075665157538</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03213270750740409</v>
+        <v>0.03184447580813726</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1374725535080999</v>
+        <v>0.1344543237707223</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.08819223169568867</v>
+        <v>0.09024649946159854</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05439145145534548</v>
+        <v>0.05659817117297281</v>
       </c>
     </row>
     <row r="27">
@@ -1461,31 +1461,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2689517316284541</v>
+        <v>0.2640309899708198</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2200955698778889</v>
+        <v>0.2180312600046106</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.165238004275163</v>
+        <v>0.1643677421530952</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.257281028026272</v>
+        <v>0.2677539041267142</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2358488207592764</v>
+        <v>0.241295420234962</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1911345566729283</v>
+        <v>0.1934468400041943</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2453652019446015</v>
+        <v>0.2437568798472848</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1943375385050778</v>
+        <v>0.1910328436409612</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1535041434056628</v>
+        <v>0.1438700204376465</v>
       </c>
     </row>
     <row r="28">
@@ -1535,31 +1535,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.160481310139349</v>
+        <v>0.1565875036098018</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.08356989102812284</v>
+        <v>0.08554512908171695</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.127683014659122</v>
+        <v>0.1281642072574909</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1059772385465141</v>
+        <v>0.106804958988496</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05984457403281686</v>
+        <v>0.06258487839055131</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1011927327805295</v>
+        <v>0.09898101775284218</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1523758334189459</v>
+        <v>0.1533054900659898</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.08404057428747684</v>
+        <v>0.08204524375136643</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1279855811603457</v>
+        <v>0.127196397960105</v>
       </c>
     </row>
     <row r="30">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2205235608698266</v>
+        <v>0.2178246520846337</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1300102799200624</v>
+        <v>0.1314242065405452</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.186582573894296</v>
+        <v>0.1902844161596026</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1956110983325092</v>
+        <v>0.189153360898776</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1218369232373616</v>
+        <v>0.1289960918323708</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1801455812094535</v>
+        <v>0.1817883443133611</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2063795779975149</v>
+        <v>0.2015938963015177</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1183928959825496</v>
+        <v>0.1192849178001658</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.175590064443498</v>
+        <v>0.1731754547961596</v>
       </c>
     </row>
     <row r="31">
@@ -1827,31 +1827,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4325</v>
+        <v>3741</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3873</v>
+        <v>3801</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12244</v>
+        <v>11229</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4191</v>
+        <v>3335</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6635</v>
+        <v>6614</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4629</v>
+        <v>4417</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9447</v>
+        <v>9703</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>21772</v>
+        <v>21037</v>
       </c>
     </row>
     <row r="7">
@@ -1862,31 +1862,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14585</v>
+        <v>14088</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15095</v>
+        <v>14952</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27822</v>
+        <v>26271</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4416</v>
+        <v>5352</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16322</v>
+        <v>16541</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18516</v>
+        <v>18060</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15883</v>
+        <v>15428</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26591</v>
+        <v>27724</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>40912</v>
+        <v>40654</v>
       </c>
     </row>
     <row r="8">
@@ -1971,31 +1971,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7804</v>
+        <v>7942</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4226</v>
+        <v>4945</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11769</v>
+        <v>11590</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1133</v>
+        <v>1209</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9127</v>
+        <v>9869</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5144</v>
+        <v>5237</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>14661</v>
+        <v>15807</v>
       </c>
     </row>
     <row r="11">
@@ -2006,31 +2006,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21364</v>
+        <v>21698</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19785</v>
+        <v>18921</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>26326</v>
+        <v>25925</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6923</v>
+        <v>7022</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5980</v>
+        <v>6158</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10081</v>
+        <v>10329</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>24417</v>
+        <v>24722</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20902</v>
+        <v>21814</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>31856</v>
+        <v>32575</v>
       </c>
     </row>
     <row r="12">
@@ -2115,29 +2115,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4737</v>
+        <v>5032</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4089</v>
+        <v>4125</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4873</v>
+        <v>5571</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4835</v>
+        <v>5140</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1942</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="15">
@@ -2148,29 +2148,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16729</v>
+        <v>17201</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15744</v>
+        <v>15397</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7151</v>
+        <v>7105</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>5267</v>
+        <v>4437</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7475</v>
+        <v>8259</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17308</v>
+        <v>18467</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16657</v>
+        <v>16589</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11010</v>
+        <v>10983</v>
       </c>
     </row>
     <row r="16">
@@ -2255,31 +2255,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11455</v>
+        <v>11269</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4341</v>
+        <v>4172</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4254</v>
+        <v>4360</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1789</v>
+        <v>1804</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17622</v>
+        <v>18889</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6961</v>
+        <v>6259</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7124</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="19">
@@ -2290,31 +2290,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>27201</v>
+        <v>26253</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16088</v>
+        <v>15584</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15470</v>
+        <v>15414</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14521</v>
+        <v>14881</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9270</v>
+        <v>9262</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9702</v>
+        <v>9563</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>35306</v>
+        <v>35882</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>20189</v>
+        <v>20731</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>20833</v>
+        <v>21648</v>
       </c>
     </row>
     <row r="20">
@@ -2402,28 +2402,28 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3311</v>
+        <v>3317</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1847</v>
+        <v>1759</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2960</v>
+        <v>2843</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7410</v>
+        <v>7087</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6654</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="23">
@@ -2434,31 +2434,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6115</v>
+        <v>6025</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14935</v>
+        <v>13953</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11141</v>
+        <v>10650</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4330</v>
+        <v>4373</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9973</v>
+        <v>10113</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11003</v>
+        <v>10671</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7361</v>
+        <v>7912</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>20765</v>
+        <v>20831</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>18329</v>
+        <v>18937</v>
       </c>
     </row>
     <row r="24">
@@ -2543,27 +2543,27 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10898</v>
+        <v>11009</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2886</v>
+        <v>3003</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4478</v>
+        <v>4467</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>13864</v>
+        <v>12380</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2972</v>
+        <v>2883</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>4629</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="27">
@@ -2574,27 +2574,27 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>23506</v>
+        <v>24338</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13175</v>
+        <v>13571</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14671</v>
+        <v>15605</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7737</v>
+        <v>7654</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>28891</v>
+        <v>26983</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>14048</v>
+        <v>12630</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>15829</v>
+        <v>15841</v>
       </c>
     </row>
     <row r="28">
@@ -2679,31 +2679,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>16084</v>
+        <v>16215</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>10178</v>
+        <v>10591</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>15216</v>
+        <v>15016</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3686</v>
+        <v>3781</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1768</v>
+        <v>1223</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>4231</v>
+        <v>5008</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>23199</v>
+        <v>21769</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>14730</v>
+        <v>15036</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>22796</v>
+        <v>23790</v>
       </c>
     </row>
     <row r="31">
@@ -2714,31 +2714,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>32978</v>
+        <v>33156</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>28000</v>
+        <v>27789</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>34200</v>
+        <v>35165</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>12683</v>
+        <v>12915</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>12223</v>
+        <v>11865</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>15959</v>
+        <v>16364</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>41842</v>
+        <v>40958</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>35440</v>
+        <v>34538</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>45239</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="32">
@@ -2823,31 +2823,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>18297</v>
+        <v>19132</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>10533</v>
+        <v>10862</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>4943</v>
+        <v>5020</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>6302</v>
+        <v>6671</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>4029</v>
+        <v>4016</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2055</v>
+        <v>2036</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>28964</v>
+        <v>28328</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>17387</v>
+        <v>17792</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>9031</v>
+        <v>9398</v>
       </c>
     </row>
     <row r="35">
@@ -2858,31 +2858,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>37253</v>
+        <v>36571</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>28662</v>
+        <v>28393</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>16871</v>
+        <v>16782</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>18571</v>
+        <v>19327</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>15785</v>
+        <v>16149</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>12222</v>
+        <v>12370</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>51696</v>
+        <v>51358</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>38314</v>
+        <v>37663</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>25488</v>
+        <v>23888</v>
       </c>
     </row>
     <row r="36">
@@ -2967,31 +2967,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>100231</v>
+        <v>97800</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>68199</v>
+        <v>69811</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>77311</v>
+        <v>77603</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>26572</v>
+        <v>26780</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>23134</v>
+        <v>24193</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>33981</v>
+        <v>33239</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>133375</v>
+        <v>134189</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>101070</v>
+        <v>98671</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>120473</v>
+        <v>119730</v>
       </c>
     </row>
     <row r="39">
@@ -3002,31 +3002,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>137732</v>
+        <v>136046</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>106098</v>
+        <v>107252</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>112975</v>
+        <v>115216</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>49047</v>
+        <v>47427</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>47098</v>
+        <v>49865</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>60495</v>
+        <v>61046</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>180645</v>
+        <v>176456</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>142384</v>
+        <v>143456</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>165284</v>
+        <v>163011</v>
       </c>
     </row>
     <row r="40">
